--- a/マニュアル情報テーブル6章.xlsx
+++ b/マニュアル情報テーブル6章.xlsx
@@ -655,7 +655,7 @@
     <outlinePr summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="AH6" activePane="bottomRight" state="frozen"/>
@@ -1516,7 +1516,11 @@
           <t>i-AR00630-01</t>
         </is>
       </c>
-      <c r="U6" s="16" t="n"/>
+      <c r="U6" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-01-2</t>
+        </is>
+      </c>
       <c r="V6" s="16" t="n"/>
       <c r="W6" s="16" t="n"/>
       <c r="X6" s="16" t="n"/>
@@ -1597,13 +1601,41 @@
           <t>i-AR00630-02</t>
         </is>
       </c>
-      <c r="U7" s="16" t="n"/>
-      <c r="V7" s="16" t="n"/>
-      <c r="W7" s="16" t="n"/>
-      <c r="X7" s="16" t="n"/>
-      <c r="Y7" s="16" t="n"/>
-      <c r="Z7" s="16" t="n"/>
-      <c r="AA7" s="16" t="n"/>
+      <c r="U7" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-02-2</t>
+        </is>
+      </c>
+      <c r="V7" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-02-3</t>
+        </is>
+      </c>
+      <c r="W7" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-02-4</t>
+        </is>
+      </c>
+      <c r="X7" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-02-02</t>
+        </is>
+      </c>
+      <c r="Y7" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-02-02-2</t>
+        </is>
+      </c>
+      <c r="Z7" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-02-02-3</t>
+        </is>
+      </c>
+      <c r="AA7" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-02-02-4</t>
+        </is>
+      </c>
       <c r="AB7" s="16" t="n"/>
       <c r="AC7" s="16" t="n"/>
       <c r="AD7" s="16" t="n"/>
@@ -1678,13 +1710,41 @@
           <t>i-AR00630-03</t>
         </is>
       </c>
-      <c r="U8" s="16" t="n"/>
-      <c r="V8" s="16" t="n"/>
-      <c r="W8" s="16" t="n"/>
-      <c r="X8" s="16" t="n"/>
-      <c r="Y8" s="16" t="n"/>
-      <c r="Z8" s="16" t="n"/>
-      <c r="AA8" s="16" t="n"/>
+      <c r="U8" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-03-2</t>
+        </is>
+      </c>
+      <c r="V8" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-03-3</t>
+        </is>
+      </c>
+      <c r="W8" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-03-4</t>
+        </is>
+      </c>
+      <c r="X8" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-03-02</t>
+        </is>
+      </c>
+      <c r="Y8" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-03-02-2</t>
+        </is>
+      </c>
+      <c r="Z8" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-03-02-3</t>
+        </is>
+      </c>
+      <c r="AA8" s="16" t="inlineStr">
+        <is>
+          <t>i-AR00630-03-02-4</t>
+        </is>
+      </c>
       <c r="AB8" s="16" t="n"/>
       <c r="AC8" s="16" t="n"/>
       <c r="AD8" s="16" t="n"/>
@@ -1719,6 +1779,7 @@
         </is>
       </c>
     </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1820,7 +1881,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="16" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr">
@@ -1833,7 +1894,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="16" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr">
@@ -1846,7 +1907,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="16" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr">
@@ -1859,7 +1920,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="16" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr">
@@ -1872,7 +1933,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="16" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr">
@@ -1885,7 +1946,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="16" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr">
@@ -1898,7 +1959,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="16" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -1963,7 +2024,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="16" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr">
@@ -1976,7 +2037,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="16" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -1989,7 +2050,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="16" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr">
@@ -2002,7 +2063,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="16" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
@@ -2028,238 +2089,238 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="16" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="16" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="16" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="16" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="16" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="16" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="16" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="16" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="16" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="16" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="16" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="16" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="16" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="16" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="16" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="16" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="16" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="16" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="16" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="16" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="16" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="16" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="16" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="16" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="16" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="16" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="16" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="16" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="16" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="16" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="16" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="16" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="16" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="16" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="16" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="16" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="16" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="16" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="16" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="16" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="16" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="16" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="16" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="16" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="16" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="16" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="16" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="16" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="16" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="16" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="16" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="16" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="16" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="16" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="16" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="16" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="16" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="16" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="16" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="16" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="16" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="16" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="16" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="16" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="16" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="16" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="16" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="16" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="16" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="16" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="16" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="16" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="16" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="16" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="16" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="16" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="16" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2298,298 +2359,298 @@
       </c>
     </row>
     <row r="2">
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="16" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="16" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="16" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="16" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="16" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="16" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="16" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="16" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="16" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="16" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="16" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="16" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="16" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="16" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="16" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="16" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="16" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="16" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="16" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="16" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="16" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="16" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="16" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="16" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="16" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="16" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="16" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="16" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="16" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="16" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="16" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="16" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="16" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="16" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="16" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="16" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="16" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="16" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="16" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="16" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="16" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="16" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="16" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="16" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="16" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="16" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="16" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="16" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="16" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="16" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="16" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="16" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="16" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="16" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="16" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="16" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="16" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="16" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="16" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="16" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="16" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="16" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="16" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="16" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="16" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="16" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="16" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="16" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="16" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="16" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="16" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="16" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="16" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="16" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="16" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="16" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="16" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="16" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="16" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="16" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="16" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="16" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="16" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="16" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="16" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="16" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="16" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="16" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="16" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="16" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="16" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="16" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="16" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="16" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="16" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="16" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16528,7 +16589,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="16" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr">
@@ -16554,7 +16615,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="16" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr">
@@ -16567,7 +16628,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="16" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
@@ -16593,7 +16654,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="16" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr">
@@ -16658,7 +16719,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="16" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -16671,7 +16732,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="16" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -16684,7 +16745,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="16" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -16697,7 +16758,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="16" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr">
@@ -16710,256 +16771,256 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="16" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="16" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="16" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="16" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="16" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="16" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="16" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="16" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="16" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="16" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="16" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="16" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="16" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="16" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="16" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="16" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="16" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="16" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="16" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="16" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="16" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="16" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="16" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="16" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="16" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="16" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="16" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="16" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="16" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="16" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="16" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="16" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="16" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="16" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="16" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="16" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="16" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="16" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="16" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="16" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="16" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="16" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="16" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="16" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="16" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="16" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="16" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="16" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="16" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="16" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="16" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="16" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="16" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="16" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="16" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="16" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="16" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="16" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="16" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="16" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="16" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="16" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="16" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="16" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="16" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="16" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="16" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="16" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="16" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="16" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="16" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="16" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="16" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="16" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="16" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="16" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="16" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="16" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="16" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="16" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="16" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="16" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
